--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Arauz\eclipse-workspace\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD632E98-91F6-448C-8024-CC37D949D2B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980460FC-DA15-43E7-8E3D-792AA96523DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>CLICK</t>
-  </si>
-  <si>
     <t>Login Button</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>OPEN-CHROME</t>
+  </si>
+  <si>
+    <t>JSCLICK</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -695,16 +695,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -742,24 +742,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -866,10 +866,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -880,10 +880,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>50</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Arauz\eclipse-workspace\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980460FC-DA15-43E7-8E3D-792AA96523DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966D4223-BFFB-45A8-BE9E-F16551B994BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Action</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>JSCLICK</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>SECONDS</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,6 +721,22 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -729,10 +751,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D5C19-F77A-4B3D-AED4-DAC2CDB7DB97}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +762,7 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -753,8 +775,11 @@
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -764,8 +789,11 @@
       <c r="C2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -775,8 +803,11 @@
       <c r="C3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -786,8 +817,11 @@
       <c r="C4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -797,8 +831,11 @@
       <c r="C5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -808,8 +845,11 @@
       <c r="C6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -819,8 +859,11 @@
       <c r="C7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -830,8 +873,11 @@
       <c r="C8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -841,8 +887,11 @@
       <c r="C9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -852,8 +901,11 @@
       <c r="C10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -863,8 +915,11 @@
       <c r="C11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -877,8 +932,11 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -891,8 +949,11 @@
       <c r="D13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -905,8 +966,11 @@
       <c r="D14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -919,8 +983,11 @@
       <c r="D15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -932,6 +999,9 @@
       </c>
       <c r="D16">
         <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Arauz\eclipse-workspace\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966D4223-BFFB-45A8-BE9E-F16551B994BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B30CBFE-8FFF-4D58-9E32-128EA4D39F4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Action</t>
   </si>
@@ -40,18 +40,12 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>GO-TO</t>
   </si>
   <si>
     <t>https://opensource-demo.orangehrmlive.com/</t>
   </si>
   <si>
-    <t>Open the url</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -178,13 +172,28 @@
     <t>OPEN-CHROME</t>
   </si>
   <si>
-    <t>JSCLICK</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
     <t>SECONDS</t>
+  </si>
+  <si>
+    <t>Expected Condition</t>
+  </si>
+  <si>
+    <t>ELEMENTTOBECLICKABLE</t>
+  </si>
+  <si>
+    <t>Element to wait</t>
+  </si>
+  <si>
+    <t>Locator of element</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>//*[@id="menu_pim_viewMyDetails"]/b</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,12 +233,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,10 +250,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,45 +556,53 @@
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="47.5703125" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -601,143 +611,149 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -764,167 +780,167 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -933,15 +949,15 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -950,15 +966,15 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -967,15 +983,15 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -984,15 +1000,15 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -1001,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Arauz\eclipse-workspace\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B30CBFE-8FFF-4D58-9E32-128EA4D39F4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5389692-D022-4985-9D32-C164D12345AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Action</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>//*[@id="menu_pim_viewMyDetails"]/b</t>
+  </si>
+  <si>
+    <t>Object Type From</t>
+  </si>
+  <si>
+    <t>Locator From</t>
+  </si>
+  <si>
+    <t>Object Type To</t>
+  </si>
+  <si>
+    <t>Locator To</t>
   </si>
 </sst>
 </file>
@@ -540,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,9 +572,13 @@
     <col min="10" max="10" width="23.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="36.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -599,8 +615,20 @@
       <c r="L1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -614,7 +642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>1</v>
@@ -633,7 +661,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>1</v>
@@ -650,7 +678,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1</v>
@@ -675,7 +703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -700,7 +728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -720,7 +748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -745,7 +773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -770,7 +798,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
